--- a/nodes_and_edges_fixing.xlsx
+++ b/nodes_and_edges_fixing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21650\Downloads\final network csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CF86735-577B-4845-B0B3-824ED8B713D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BABEF1-F3BF-4FA5-8D65-6B7815E06F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{987C551E-E8F5-46F2-BCC8-E2C17D2C5B39}"/>
   </bookViews>
@@ -245,15 +245,16 @@
     <t>Distance (KM)</t>
   </si>
   <si>
-    <t>Scenario</t>
+    <t>Sceanrio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -358,7 +359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -606,23 +607,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -732,19 +722,25 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -753,6 +749,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1030,15 +1038,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1353,16 +1352,16 @@
     <tableColumn id="6" xr3:uid="{96EE2195-033F-420E-94AC-E5347FDF32AB}" name="Distance Normalized" dataDxfId="16" dataCellStyle="Comma"/>
     <tableColumn id="7" xr3:uid="{5291C5FE-DD54-4629-A520-7CC37D38B6E4}" name="Edge Risk Normalized" dataDxfId="15" dataCellStyle="Comma"/>
     <tableColumn id="8" xr3:uid="{0CCD83F8-A247-4FFB-940D-39D28C6802F6}" name="Edge Weight Humanitarian Aid Normalized" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{31E28EFD-5AEF-4334-B8D8-B7C3883F9285}" name="Humanitarian Scenario Weights" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{47AFBD57-60E5-4981-BEFC-4399225B8B3A}" name="Distance Scenario Weights" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{4FF75750-ED8B-4EE5-98FA-D2F534B70E7D}" name="Danger Scenario Weights" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{31E28EFD-5AEF-4334-B8D8-B7C3883F9285}" name="Humanitarian Scenario Weights" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{47AFBD57-60E5-4981-BEFC-4399225B8B3A}" name="Distance Scenario Weights" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{4FF75750-ED8B-4EE5-98FA-D2F534B70E7D}" name="Danger Scenario Weights" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7002CD08-068B-4DF1-B66B-B5E05294BE15}" name="Table4" displayName="Table4" ref="M2:R42" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7002CD08-068B-4DF1-B66B-B5E05294BE15}" name="Table4" displayName="Table4" ref="M2:R42" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="M2:R42" xr:uid="{7002CD08-068B-4DF1-B66B-B5E05294BE15}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1372,12 +1371,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EECDA50D-5229-46C2-A8AB-FA03C99193E9}" name="Name" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{270155F5-77DE-45CB-8A59-449E0AB570BA}" name="Y" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F4FFED0A-4261-4D2E-8FAD-EDBBD03F01F5}" name="X" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{21537135-76F8-44AD-9FE7-A5C259617189}" name="Type" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{4A8BBCD9-F0B8-4199-8A63-D291F8A3C14E}" name="Risk" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{786EC07E-9151-4416-A4BF-B15877803D22}" name="HumanitarianAid" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EECDA50D-5229-46C2-A8AB-FA03C99193E9}" name="Name" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{270155F5-77DE-45CB-8A59-449E0AB570BA}" name="Y" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{F4FFED0A-4261-4D2E-8FAD-EDBBD03F01F5}" name="X" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{21537135-76F8-44AD-9FE7-A5C259617189}" name="Type" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{4A8BBCD9-F0B8-4199-8A63-D291F8A3C14E}" name="Risk" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{786EC07E-9151-4416-A4BF-B15877803D22}" name="HumanitarianAid" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1703,32 +1702,30 @@
   <dimension ref="A1:W81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="21" customWidth="1"/>
     <col min="2" max="2" width="35.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.77734375" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="21" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.77734375" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="35.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.21875" style="21" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.77734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="36.77734375" style="21" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.21875" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="8.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8.88671875" style="21"/>
     <col min="25" max="25" width="18.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.109375" style="21" bestFit="1" customWidth="1"/>
@@ -1758,14 +1755,7 @@
       <c r="P1" s="35"/>
       <c r="Q1" s="35"/>
       <c r="R1" s="36"/>
-      <c r="T1" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39"/>
+      <c r="W1"/>
     </row>
     <row r="2" spans="1:23" s="32" customFormat="1" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -1792,13 +1782,13 @@
       <c r="H2" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="41" t="s">
         <v>66</v>
       </c>
       <c r="M2" s="16" t="s">
@@ -1818,16 +1808,6 @@
       </c>
       <c r="R2" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="T2" s="41"/>
-      <c r="U2" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1844,7 +1824,7 @@
         <v>8.125</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E34" si="0">AVERAGE(
+        <f>AVERAGE(
    _xlfn.XLOOKUP(A3, $M$3:$M$42, $R$3:$R$42),
    _xlfn.XLOOKUP(B3, $M$3:$M$42, $R$3:$R$42)
 )</f>
@@ -1859,15 +1839,16 @@
       <c r="H3" s="26">
         <v>0.125</v>
       </c>
-      <c r="I3" s="4">
-        <v>0.52313649648459981</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.23190948945379966</v>
-      </c>
-      <c r="K3" s="22">
-        <v>8.1790342638446048E-2</v>
-      </c>
+      <c r="I3" s="42">
+        <v>5.6775449286526838</v>
+      </c>
+      <c r="J3" s="42">
+        <v>26.748641253072268</v>
+      </c>
+      <c r="K3" s="40">
+        <v>45.198265033075366</v>
+      </c>
+      <c r="L3" s="21"/>
       <c r="M3" s="13" t="s">
         <v>2</v>
       </c>
@@ -1885,18 +1866,6 @@
       </c>
       <c r="R3" s="14">
         <v>1</v>
-      </c>
-      <c r="T3" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="W3" s="1">
-        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1913,7 +1882,10 @@
         <v>8.125</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A4, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B4, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>0.5</v>
       </c>
       <c r="F4" s="4">
@@ -1925,15 +1897,16 @@
       <c r="H4" s="22">
         <v>0.125</v>
       </c>
-      <c r="I4" s="4">
-        <v>0.47307692307692306</v>
-      </c>
-      <c r="J4" s="4">
-        <v>8.1730769230769218E-2</v>
-      </c>
-      <c r="K4" s="22">
-        <v>3.1730769230769229E-2</v>
-      </c>
+      <c r="I4" s="42">
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="J4" s="42">
+        <v>11.730769230769234</v>
+      </c>
+      <c r="K4" s="40">
+        <v>40.192307692307686</v>
+      </c>
+      <c r="L4" s="21"/>
       <c r="M4" s="13" t="s">
         <v>3</v>
       </c>
@@ -1951,18 +1924,6 @@
       </c>
       <c r="R4" s="14">
         <v>1</v>
-      </c>
-      <c r="T4" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="W4" s="1">
-        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1979,7 +1940,10 @@
         <v>9.25</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A5, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B5, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>0.5</v>
       </c>
       <c r="F5" s="4">
@@ -1991,15 +1955,16 @@
       <c r="H5" s="22">
         <v>0.125</v>
       </c>
-      <c r="I5" s="4">
-        <v>0.62069109645620579</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.18707328936861775</v>
-      </c>
-      <c r="K5" s="22">
-        <v>8.4152634917744371E-2</v>
-      </c>
+      <c r="I5" s="42">
+        <v>6.5037553111385202</v>
+      </c>
+      <c r="J5" s="42">
+        <v>23.130405859938698</v>
+      </c>
+      <c r="K5" s="40">
+        <v>53.222955799466746</v>
+      </c>
+      <c r="L5" s="21"/>
       <c r="M5" s="13" t="s">
         <v>4</v>
       </c>
@@ -2017,18 +1982,6 @@
       </c>
       <c r="R5" s="14">
         <v>1</v>
-      </c>
-      <c r="T5" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="W5" s="1">
-        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2045,7 +1998,10 @@
         <v>8.375</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A6, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B6, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>0.5</v>
       </c>
       <c r="F6" s="4">
@@ -2057,15 +2013,16 @@
       <c r="H6" s="22">
         <v>0.125</v>
       </c>
-      <c r="I6" s="4">
-        <v>0.53606099070966329</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.19568297212899005</v>
-      </c>
-      <c r="K6" s="22">
-        <v>7.3560990709663335E-2</v>
-      </c>
+      <c r="I6" s="42">
+        <v>5.2045743032247511</v>
+      </c>
+      <c r="J6" s="42">
+        <v>23.318297212899012</v>
+      </c>
+      <c r="K6" s="40">
+        <v>46.10609907096633</v>
+      </c>
+      <c r="L6" s="21"/>
       <c r="M6" s="13" t="s">
         <v>5</v>
       </c>
@@ -2084,6 +2041,14 @@
       <c r="R6" s="14">
         <v>1</v>
       </c>
+      <c r="T6" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="U6" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
     </row>
     <row r="7" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
@@ -2099,7 +2064,10 @@
         <v>9.25</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A7, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B7, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>0.5</v>
       </c>
       <c r="F7" s="4">
@@ -2111,15 +2079,16 @@
       <c r="H7" s="22">
         <v>0.125</v>
       </c>
-      <c r="I7" s="4">
-        <v>0.62444422113984377</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.19833266341953157</v>
-      </c>
-      <c r="K7" s="22">
-        <v>8.7905759601382319E-2</v>
-      </c>
+      <c r="I7" s="42">
+        <v>6.7852396624113656</v>
+      </c>
+      <c r="J7" s="42">
+        <v>24.256343265030083</v>
+      </c>
+      <c r="K7" s="40">
+        <v>53.598268267830541</v>
+      </c>
+      <c r="L7" s="21"/>
       <c r="M7" s="13" t="s">
         <v>6</v>
       </c>
@@ -2137,6 +2106,16 @@
       </c>
       <c r="R7" s="14">
         <v>1</v>
+      </c>
+      <c r="T7" s="38"/>
+      <c r="U7" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="V7" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" s="23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2153,7 +2132,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A8, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B8, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>0.5</v>
       </c>
       <c r="F8" s="4">
@@ -2165,15 +2147,16 @@
       <c r="H8" s="22">
         <v>0.125</v>
       </c>
-      <c r="I8" s="4">
-        <v>0.69090902011478583</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.17272706034435767</v>
-      </c>
-      <c r="K8" s="22">
-        <v>9.0909020114785868E-2</v>
-      </c>
+      <c r="I8" s="42">
+        <v>7.4431765086089428</v>
+      </c>
+      <c r="J8" s="42">
+        <v>22.272706034435767</v>
+      </c>
+      <c r="K8" s="40">
+        <v>59.090902011478583</v>
+      </c>
+      <c r="L8" s="21"/>
       <c r="M8" s="13" t="s">
         <v>7</v>
       </c>
@@ -2191,6 +2174,18 @@
       </c>
       <c r="R8" s="14">
         <v>1</v>
+      </c>
+      <c r="T8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2207,7 +2202,10 @@
         <v>9</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A9, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B9, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>0.5</v>
       </c>
       <c r="F9" s="4">
@@ -2219,15 +2217,16 @@
       <c r="H9" s="22">
         <v>0.125</v>
       </c>
-      <c r="I9" s="4">
-        <v>0.58981300719014185</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0.1694390215704257</v>
-      </c>
-      <c r="K9" s="22">
-        <v>7.4428391805526531E-2</v>
-      </c>
+      <c r="I9" s="42">
+        <v>5.6302063084914113</v>
+      </c>
+      <c r="J9" s="42">
+        <v>21.174671387811802</v>
+      </c>
+      <c r="K9" s="40">
+        <v>50.519762257475719</v>
+      </c>
+      <c r="L9" s="21"/>
       <c r="M9" s="13" t="s">
         <v>8</v>
       </c>
@@ -2245,6 +2244,18 @@
       </c>
       <c r="R9" s="14">
         <v>1</v>
+      </c>
+      <c r="T9" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2261,7 +2272,10 @@
         <v>9.5</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A10, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B10, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>0</v>
       </c>
       <c r="F10" s="4">
@@ -2273,15 +2287,16 @@
       <c r="H10" s="22">
         <v>0</v>
       </c>
-      <c r="I10" s="4">
-        <v>0.68463826751305434</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.25391480253916304</v>
-      </c>
-      <c r="K10" s="22">
-        <v>0.17694595982074665</v>
-      </c>
+      <c r="I10" s="42">
+        <v>16.732485448094462</v>
+      </c>
+      <c r="J10" s="42">
+        <v>30.006864869300919</v>
+      </c>
+      <c r="K10" s="40">
+        <v>59.233057520536207</v>
+      </c>
+      <c r="L10" s="21"/>
       <c r="M10" s="13" t="s">
         <v>9</v>
       </c>
@@ -2299,6 +2314,18 @@
       </c>
       <c r="R10" s="14">
         <v>0</v>
+      </c>
+      <c r="T10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2315,7 +2342,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A11, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B11, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>0.5</v>
       </c>
       <c r="F11" s="4">
@@ -2327,15 +2357,16 @@
       <c r="H11" s="22">
         <v>0.125</v>
       </c>
-      <c r="I11" s="4">
-        <v>0.58580912907811278</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0.15742738723433825</v>
-      </c>
-      <c r="K11" s="22">
-        <v>7.0424513693497351E-2</v>
-      </c>
+      <c r="I11" s="42">
+        <v>5.3299154500892261</v>
+      </c>
+      <c r="J11" s="42">
+        <v>19.973507954203058</v>
+      </c>
+      <c r="K11" s="40">
+        <v>50.119374446272815</v>
+      </c>
+      <c r="L11" s="21"/>
       <c r="M11" s="13" t="s">
         <v>10</v>
       </c>
@@ -2369,7 +2400,10 @@
         <v>9.5</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A12, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B12, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>0.5</v>
       </c>
       <c r="F12" s="4">
@@ -2381,15 +2415,16 @@
       <c r="H12" s="22">
         <v>0.125</v>
       </c>
-      <c r="I12" s="4">
-        <v>0.64452453292231981</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.18357359876695928</v>
-      </c>
-      <c r="K12" s="22">
-        <v>8.6832225230012064E-2</v>
-      </c>
+      <c r="I12" s="42">
+        <v>6.8489553537893686</v>
+      </c>
+      <c r="J12" s="42">
+        <v>22.972744492080547</v>
+      </c>
+      <c r="K12" s="40">
+        <v>55.221684061462753</v>
+      </c>
+      <c r="L12" s="21"/>
       <c r="M12" s="13" t="s">
         <v>43</v>
       </c>
@@ -2423,7 +2458,10 @@
         <v>9.25</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A13, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B13, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>0.5</v>
       </c>
       <c r="F13" s="4">
@@ -2435,15 +2473,16 @@
       <c r="H13" s="22">
         <v>0.125</v>
       </c>
-      <c r="I13" s="4">
-        <v>0.61740599292307441</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0.1772179787692236</v>
-      </c>
-      <c r="K13" s="22">
-        <v>8.0867531384612987E-2</v>
-      </c>
+      <c r="I13" s="42">
+        <v>6.2573725461536664</v>
+      </c>
+      <c r="J13" s="42">
+        <v>22.144874799999283</v>
+      </c>
+      <c r="K13" s="40">
+        <v>52.894445446153604</v>
+      </c>
+      <c r="L13" s="21"/>
       <c r="M13" s="13" t="s">
         <v>11</v>
       </c>
@@ -2477,7 +2516,10 @@
         <v>6</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A14, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B14, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>2</v>
       </c>
       <c r="F14" s="4">
@@ -2489,15 +2531,16 @@
       <c r="H14" s="22">
         <v>0.5</v>
       </c>
-      <c r="I14" s="4">
-        <v>0.21274894885432757</v>
-      </c>
-      <c r="J14" s="4">
-        <v>8.8246846562982789E-2</v>
-      </c>
-      <c r="K14" s="22">
-        <v>-0.19878951268413392</v>
-      </c>
+      <c r="I14" s="42">
+        <v>-25.966905759002351</v>
+      </c>
+      <c r="J14" s="42">
+        <v>10.747761579375201</v>
+      </c>
+      <c r="K14" s="40">
+        <v>17.428741039278915</v>
+      </c>
+      <c r="L14" s="21"/>
       <c r="M14" s="13" t="s">
         <v>12</v>
       </c>
@@ -2531,7 +2574,10 @@
         <v>5.75</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A15, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B15, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>2</v>
       </c>
       <c r="F15" s="4">
@@ -2543,15 +2589,16 @@
       <c r="H15" s="22">
         <v>0.5</v>
       </c>
-      <c r="I15" s="4">
-        <v>0.18122606505811475</v>
-      </c>
-      <c r="J15" s="4">
-        <v>6.8678195174344314E-2</v>
-      </c>
-      <c r="K15" s="22">
-        <v>-0.2091585503265006</v>
-      </c>
+      <c r="I15" s="42">
+        <v>-26.888814351410623</v>
+      </c>
+      <c r="J15" s="42">
+        <v>8.5985887482036638</v>
+      </c>
+      <c r="K15" s="40">
+        <v>14.661068044273016</v>
+      </c>
+      <c r="L15" s="21"/>
       <c r="M15" s="13" t="s">
         <v>13</v>
       </c>
@@ -2585,7 +2632,10 @@
         <v>5.25</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A16, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B16, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>2</v>
       </c>
       <c r="F16" s="4">
@@ -2597,15 +2647,16 @@
       <c r="H16" s="22">
         <v>0.5</v>
       </c>
-      <c r="I16" s="4">
-        <v>9.8898371180967143E-2</v>
-      </c>
-      <c r="J16" s="4">
-        <v>-2.8304886457098472E-2</v>
-      </c>
-      <c r="K16" s="22">
-        <v>-0.24917855189595589</v>
-      </c>
+      <c r="I16" s="42">
+        <v>-30.178776007581305</v>
+      </c>
+      <c r="J16" s="42">
+        <v>-1.4843347995560001</v>
+      </c>
+      <c r="K16" s="40">
+        <v>7.197529425789023</v>
+      </c>
+      <c r="L16" s="21"/>
       <c r="M16" s="13" t="s">
         <v>14</v>
       </c>
@@ -2639,7 +2690,10 @@
         <v>5.5</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A17, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B17, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>2</v>
       </c>
       <c r="F17" s="4">
@@ -2651,15 +2705,16 @@
       <c r="H17" s="22">
         <v>0.5</v>
       </c>
-      <c r="I17" s="4">
-        <v>0.12359990511384841</v>
-      </c>
-      <c r="J17" s="4">
-        <v>-2.9200284658454784E-2</v>
-      </c>
-      <c r="K17" s="22">
-        <v>-0.24563086411692081</v>
-      </c>
+      <c r="I17" s="42">
+        <v>-29.768468654922909</v>
+      </c>
+      <c r="J17" s="42">
+        <v>-1.3815669273839397</v>
+      </c>
+      <c r="K17" s="40">
+        <v>9.2830674344617634</v>
+      </c>
+      <c r="L17" s="21"/>
       <c r="M17" s="13" t="s">
         <v>15</v>
       </c>
@@ -2693,7 +2748,10 @@
         <v>5.75</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A18, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B18, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>2</v>
       </c>
       <c r="F18" s="4">
@@ -2705,15 +2763,16 @@
       <c r="H18" s="22">
         <v>0.5</v>
       </c>
-      <c r="I18" s="4">
-        <v>0.1928107566391852</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0.10343226991755569</v>
-      </c>
-      <c r="K18" s="22">
-        <v>-0.19757385874543015</v>
-      </c>
+      <c r="I18" s="42">
+        <v>-26.019962482830337</v>
+      </c>
+      <c r="J18" s="42">
+        <v>12.073996222524801</v>
+      </c>
+      <c r="K18" s="40">
+        <v>15.81953720238006</v>
+      </c>
+      <c r="L18" s="21"/>
       <c r="M18" s="13" t="s">
         <v>16</v>
       </c>
@@ -2747,7 +2806,10 @@
         <v>5.5</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A19, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B19, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>2</v>
       </c>
       <c r="F19" s="4">
@@ -2759,15 +2821,16 @@
       <c r="H19" s="22">
         <v>0.5</v>
       </c>
-      <c r="I19" s="4">
-        <v>0.13630033264065644</v>
-      </c>
-      <c r="J19" s="4">
-        <v>8.9009979219693142E-3</v>
-      </c>
-      <c r="K19" s="22">
-        <v>-0.23293043659011278</v>
-      </c>
+      <c r="I19" s="42">
+        <v>-28.815936590412306</v>
+      </c>
+      <c r="J19" s="42">
+        <v>2.4285613306584701</v>
+      </c>
+      <c r="K19" s="40">
+        <v>10.553110187142567</v>
+      </c>
+      <c r="L19" s="21"/>
       <c r="M19" s="13" t="s">
         <v>17</v>
       </c>
@@ -2801,7 +2864,10 @@
         <v>7.5</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A20, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B20, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1.5</v>
       </c>
       <c r="F20" s="4">
@@ -2813,15 +2879,16 @@
       <c r="H20" s="22">
         <v>0.375</v>
       </c>
-      <c r="I20" s="4">
-        <v>0.36306872536868723</v>
-      </c>
-      <c r="J20" s="4">
-        <v>3.9206176106061627E-2</v>
-      </c>
-      <c r="K20" s="22">
-        <v>-0.12539281309285122</v>
-      </c>
+      <c r="I20" s="42">
+        <v>-16.47176867427153</v>
+      </c>
+      <c r="J20" s="42">
+        <v>6.9975406875292387</v>
+      </c>
+      <c r="K20" s="40">
+        <v>30.153026383022567</v>
+      </c>
+      <c r="L20" s="21"/>
       <c r="M20" s="13" t="s">
         <v>18</v>
       </c>
@@ -2855,7 +2922,10 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A21, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B21, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1.5</v>
       </c>
       <c r="F21" s="4">
@@ -2867,15 +2937,16 @@
       <c r="H21" s="22">
         <v>0.375</v>
       </c>
-      <c r="I21" s="4">
-        <v>0.42549870639744708</v>
-      </c>
-      <c r="J21" s="4">
-        <v>7.6496119192341505E-2</v>
-      </c>
-      <c r="K21" s="22">
-        <v>-0.10527052437178358</v>
-      </c>
+      <c r="I21" s="42">
+        <v>-14.67413548172992</v>
+      </c>
+      <c r="J21" s="42">
+        <v>11.111150380772617</v>
+      </c>
+      <c r="K21" s="40">
+        <v>35.626793716667791</v>
+      </c>
+      <c r="L21" s="21"/>
       <c r="M21" s="13" t="s">
         <v>19</v>
       </c>
@@ -2909,7 +2980,10 @@
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A22, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B22, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1.5</v>
       </c>
       <c r="F22" s="4">
@@ -2921,15 +2995,16 @@
       <c r="H22" s="22">
         <v>0.375</v>
       </c>
-      <c r="I22" s="4">
-        <v>0.44049816128129843</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0.1214944838438955</v>
-      </c>
-      <c r="K22" s="22">
-        <v>-9.0271069487932232E-2</v>
-      </c>
+      <c r="I22" s="42">
+        <v>-13.54917636544107</v>
+      </c>
+      <c r="J22" s="42">
+        <v>15.610986845928013</v>
+      </c>
+      <c r="K22" s="40">
+        <v>37.126739205052921</v>
+      </c>
+      <c r="L22" s="21"/>
       <c r="M22" s="13" t="s">
         <v>20</v>
       </c>
@@ -2963,7 +3038,10 @@
         <v>8.5</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A23, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B23, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>2.5</v>
       </c>
       <c r="F23" s="4">
@@ -2975,15 +3053,16 @@
       <c r="H23" s="22">
         <v>0.625</v>
       </c>
-      <c r="I23" s="4">
-        <v>0.46598406343953913</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0.14795219031861745</v>
-      </c>
-      <c r="K23" s="22">
-        <v>-0.20709285963738391</v>
-      </c>
+      <c r="I23" s="42">
+        <v>-28.27234908818841</v>
+      </c>
+      <c r="J23" s="42">
+        <v>18.641372878015595</v>
+      </c>
+      <c r="K23" s="40">
+        <v>38.906098651646225</v>
+      </c>
+      <c r="L23" s="21"/>
       <c r="M23" s="13" t="s">
         <v>21</v>
       </c>
@@ -3017,7 +3096,10 @@
         <v>7.75</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A24, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B24, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1.5</v>
       </c>
       <c r="F24" s="4">
@@ -3029,15 +3111,16 @@
       <c r="H24" s="22">
         <v>0.375</v>
       </c>
-      <c r="I24" s="4">
-        <v>0.46494897173722521</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0.26984691521167581</v>
-      </c>
-      <c r="K24" s="22">
-        <v>-4.4666412878159312E-2</v>
-      </c>
+      <c r="I24" s="42">
+        <v>-10.273057888938869</v>
+      </c>
+      <c r="J24" s="42">
+        <v>30.25392229039835</v>
+      </c>
+      <c r="K24" s="40">
+        <v>39.956435635260988</v>
+      </c>
+      <c r="L24" s="21"/>
       <c r="M24" s="13" t="s">
         <v>22</v>
       </c>
@@ -3071,7 +3154,10 @@
         <v>7</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A25, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B25, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>2.5</v>
       </c>
       <c r="F25" s="4">
@@ -3083,15 +3169,16 @@
       <c r="H25" s="22">
         <v>0.625</v>
       </c>
-      <c r="I25" s="4">
-        <v>0.31967634177943877</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0.15902902533831648</v>
-      </c>
-      <c r="K25" s="22">
-        <v>-0.22647750437440733</v>
-      </c>
+      <c r="I25" s="42">
+        <v>-30.591582058849781</v>
+      </c>
+      <c r="J25" s="42">
+        <v>18.59521022613934</v>
+      </c>
+      <c r="K25" s="40">
+        <v>26.583018793328495</v>
+      </c>
+      <c r="L25" s="21"/>
       <c r="M25" s="13" t="s">
         <v>23</v>
       </c>
@@ -3125,7 +3212,10 @@
         <v>9.5</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A26, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B26, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>2.5</v>
       </c>
       <c r="F26" s="4">
@@ -3137,15 +3227,16 @@
       <c r="H26" s="22">
         <v>0.625</v>
       </c>
-      <c r="I26" s="4">
-        <v>0.58212002559050757</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0.19636007677152267</v>
-      </c>
-      <c r="K26" s="22">
-        <v>-0.17557228210180012</v>
-      </c>
+      <c r="I26" s="42">
+        <v>-25.331382696096551</v>
+      </c>
+      <c r="J26" s="42">
+        <v>24.251392292536888</v>
+      </c>
+      <c r="K26" s="40">
+        <v>48.981233328281526</v>
+      </c>
+      <c r="L26" s="21"/>
       <c r="M26" s="13" t="s">
         <v>24</v>
       </c>
@@ -3179,7 +3270,10 @@
         <v>9.25</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A27, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B27, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>2.5</v>
       </c>
       <c r="F27" s="4">
@@ -3191,15 +3285,16 @@
       <c r="H27" s="22">
         <v>0.625</v>
       </c>
-      <c r="I27" s="4">
-        <v>0.52161935138366644</v>
-      </c>
-      <c r="J27" s="4">
-        <v>8.9858054150999594E-2</v>
-      </c>
-      <c r="K27" s="22">
-        <v>-0.21491911015479501</v>
-      </c>
+      <c r="I27" s="42">
+        <v>-28.426625569301933</v>
+      </c>
+      <c r="J27" s="42">
+        <v>13.408882338176886</v>
+      </c>
+      <c r="K27" s="40">
+        <v>43.315781292212804</v>
+      </c>
+      <c r="L27" s="21"/>
       <c r="M27" s="13" t="s">
         <v>25</v>
       </c>
@@ -3233,7 +3328,10 @@
         <v>9</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A28, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B28, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1.5</v>
       </c>
       <c r="F28" s="4">
@@ -3245,15 +3343,16 @@
       <c r="H28" s="22">
         <v>0.375</v>
       </c>
-      <c r="I28" s="4">
-        <v>0.60168699969868866</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0.30506099909606565</v>
-      </c>
-      <c r="K28" s="22">
-        <v>-1.3697615685926812E-2</v>
-      </c>
+      <c r="I28" s="42">
+        <v>-7.2292442533675842</v>
+      </c>
+      <c r="J28" s="42">
+        <v>34.736869140375795</v>
+      </c>
+      <c r="K28" s="40">
+        <v>51.707161508330387</v>
+      </c>
+      <c r="L28" s="21"/>
       <c r="M28" s="13" t="s">
         <v>32</v>
       </c>
@@ -3287,7 +3386,10 @@
         <v>8.125</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A29, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B29, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>0.5</v>
       </c>
       <c r="F29" s="4">
@@ -3299,15 +3401,16 @@
       <c r="H29" s="22">
         <v>0.125</v>
       </c>
-      <c r="I29" s="4">
-        <v>0.49008240538790404</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0.13274721616371218</v>
-      </c>
-      <c r="K29" s="22">
-        <v>4.8736251541750208E-2</v>
-      </c>
+      <c r="I29" s="42">
+        <v>3.1984880964004967</v>
+      </c>
+      <c r="J29" s="42">
+        <v>16.832413924063527</v>
+      </c>
+      <c r="K29" s="40">
+        <v>41.892855923405783</v>
+      </c>
+      <c r="L29" s="21"/>
       <c r="M29" s="13" t="s">
         <v>26</v>
       </c>
@@ -3341,7 +3444,10 @@
         <v>6.25</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A30, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B30, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F30" s="4">
@@ -3353,15 +3459,16 @@
       <c r="H30" s="22">
         <v>0.25</v>
       </c>
-      <c r="I30" s="4">
-        <v>0.42122432188449654</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0.53867296565348943</v>
-      </c>
-      <c r="K30" s="22">
-        <v>8.853201419218884E-2</v>
-      </c>
+      <c r="I30" s="42">
+        <v>1.9764395259526224</v>
+      </c>
+      <c r="J30" s="42">
+        <v>55.982681180733564</v>
+      </c>
+      <c r="K30" s="40">
+        <v>37.891662957680424</v>
+      </c>
+      <c r="L30" s="21"/>
       <c r="M30" s="13" t="s">
         <v>30</v>
       </c>
@@ -3395,7 +3502,10 @@
         <v>6.25</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A31, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B31, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F31" s="4">
@@ -3407,15 +3517,16 @@
       <c r="H31" s="22">
         <v>0.25</v>
       </c>
-      <c r="I31" s="4">
-        <v>0.37201649245912682</v>
-      </c>
-      <c r="J31" s="4">
-        <v>0.39104947737738044</v>
-      </c>
-      <c r="K31" s="22">
-        <v>3.932418476681912E-2</v>
-      </c>
+      <c r="I31" s="42">
+        <v>-1.7141476809501039</v>
+      </c>
+      <c r="J31" s="42">
+        <v>41.220332353122664</v>
+      </c>
+      <c r="K31" s="40">
+        <v>32.97088001514345</v>
+      </c>
+      <c r="L31" s="21"/>
       <c r="M31" s="13" t="s">
         <v>29</v>
       </c>
@@ -3449,7 +3560,10 @@
         <v>6.25</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A32, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B32, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F32" s="4">
@@ -3461,15 +3575,16 @@
       <c r="H32" s="22">
         <v>0.25</v>
       </c>
-      <c r="I32" s="4">
-        <v>0.29831114331223357</v>
-      </c>
-      <c r="J32" s="4">
-        <v>0.16993342993670063</v>
-      </c>
-      <c r="K32" s="22">
-        <v>-3.4381164380074131E-2</v>
-      </c>
+      <c r="I32" s="42">
+        <v>-7.2420488669670995</v>
+      </c>
+      <c r="J32" s="42">
+        <v>19.108727609054682</v>
+      </c>
+      <c r="K32" s="40">
+        <v>25.600345100454124</v>
+      </c>
+      <c r="L32" s="21"/>
       <c r="M32" s="13" t="s">
         <v>27</v>
       </c>
@@ -3503,7 +3618,10 @@
         <v>6</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A33, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B33, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F33" s="4">
@@ -3515,15 +3633,16 @@
       <c r="H33" s="22">
         <v>0.25</v>
       </c>
-      <c r="I33" s="4">
-        <v>0.33005930683988982</v>
-      </c>
-      <c r="J33" s="4">
-        <v>0.3401779205196695</v>
-      </c>
-      <c r="K33" s="22">
-        <v>1.8520845301428307E-2</v>
-      </c>
+      <c r="I33" s="42">
+        <v>-3.4186289100851863</v>
+      </c>
+      <c r="J33" s="42">
+        <v>35.94086897504387</v>
+      </c>
+      <c r="K33" s="40">
+        <v>29.159776837835139</v>
+      </c>
+      <c r="L33" s="21"/>
       <c r="M33" s="13" t="s">
         <v>35</v>
       </c>
@@ -3557,7 +3676,10 @@
         <v>6.5</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A34, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B34, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F34" s="4">
@@ -3569,15 +3691,16 @@
       <c r="H34" s="22">
         <v>0.25</v>
       </c>
-      <c r="I34" s="4">
-        <v>0.36001009962446895</v>
-      </c>
-      <c r="J34" s="4">
-        <v>0.28003029887340675</v>
-      </c>
-      <c r="K34" s="22">
-        <v>6.1639457783150831E-3</v>
-      </c>
+      <c r="I34" s="42">
+        <v>-4.05693483585714</v>
+      </c>
+      <c r="J34" s="42">
+        <v>30.31072219503298</v>
+      </c>
+      <c r="K34" s="40">
+        <v>31.38562534706228</v>
+      </c>
+      <c r="L34" s="21"/>
       <c r="M34" s="13" t="s">
         <v>31</v>
       </c>
@@ -3611,7 +3734,7 @@
         <v>5.75</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" ref="E35:E66" si="1">AVERAGE(
+        <f>AVERAGE(
    _xlfn.XLOOKUP(A35, $M$3:$M$42, $R$3:$R$42),
    _xlfn.XLOOKUP(B35, $M$3:$M$42, $R$3:$R$42)
 )</f>
@@ -3626,15 +3749,16 @@
       <c r="H35" s="22">
         <v>0.25</v>
       </c>
-      <c r="I35" s="4">
-        <v>0.21999238933992421</v>
-      </c>
-      <c r="J35" s="4">
-        <v>8.4977168019772745E-2</v>
-      </c>
-      <c r="K35" s="22">
-        <v>-7.0392226044691128E-2</v>
-      </c>
+      <c r="I35" s="42">
+        <v>-10.231340030274911</v>
+      </c>
+      <c r="J35" s="42">
+        <v>10.228486032746508</v>
+      </c>
+      <c r="K35" s="40">
+        <v>18.53770047245396</v>
+      </c>
+      <c r="L35" s="21"/>
       <c r="M35" s="13" t="s">
         <v>28</v>
       </c>
@@ -3668,7 +3792,10 @@
         <v>6.25</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A36, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B36, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F36" s="4">
@@ -3680,15 +3807,16 @@
       <c r="H36" s="22">
         <v>0.25</v>
       </c>
-      <c r="I36" s="4">
-        <v>0.24771735607885376</v>
-      </c>
-      <c r="J36" s="4">
-        <v>1.8152068236561236E-2</v>
-      </c>
-      <c r="K36" s="22">
-        <v>-8.4974951613453947E-2</v>
-      </c>
+      <c r="I36" s="42">
+        <v>-11.036582909470583</v>
+      </c>
+      <c r="J36" s="42">
+        <v>3.9305914390407399</v>
+      </c>
+      <c r="K36" s="40">
+        <v>20.540966377116142</v>
+      </c>
+      <c r="L36" s="21"/>
       <c r="M36" s="13" t="s">
         <v>33</v>
       </c>
@@ -3722,7 +3850,10 @@
         <v>6</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A37, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B37, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F37" s="4">
@@ -3734,15 +3865,16 @@
       <c r="H37" s="22">
         <v>0.25</v>
       </c>
-      <c r="I37" s="4">
-        <v>0.28267839524994176</v>
-      </c>
-      <c r="J37" s="4">
-        <v>0.19803518574982532</v>
-      </c>
-      <c r="K37" s="22">
-        <v>-2.8860066288519767E-2</v>
-      </c>
+      <c r="I37" s="42">
+        <v>-6.9721972793312892</v>
+      </c>
+      <c r="J37" s="42">
+        <v>21.726595498059453</v>
+      </c>
+      <c r="K37" s="40">
+        <v>24.421685678840333</v>
+      </c>
+      <c r="L37" s="21"/>
       <c r="M37" s="13" t="s">
         <v>34</v>
       </c>
@@ -3776,7 +3908,10 @@
         <v>6.5</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A38, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B38, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F38" s="4">
@@ -3788,15 +3923,16 @@
       <c r="H38" s="22">
         <v>0.25</v>
       </c>
-      <c r="I38" s="4">
-        <v>0.29031310632939755</v>
-      </c>
-      <c r="J38" s="4">
-        <v>7.0939318988192543E-2</v>
-      </c>
-      <c r="K38" s="22">
-        <v>-6.3533047516756314E-2</v>
-      </c>
+      <c r="I38" s="42">
+        <v>-9.2842093329874924</v>
+      </c>
+      <c r="J38" s="42">
+        <v>9.4016242065115616</v>
+      </c>
+      <c r="K38" s="40">
+        <v>24.41592601755514</v>
+      </c>
+      <c r="L38" s="21"/>
       <c r="M38" s="13" t="s">
         <v>45</v>
       </c>
@@ -3830,7 +3966,10 @@
         <v>7</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A39, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B39, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F39" s="4">
@@ -3842,15 +3981,16 @@
       <c r="H39" s="22">
         <v>0.25</v>
       </c>
-      <c r="I39" s="4">
-        <v>0.32818210054218083</v>
-      </c>
-      <c r="J39" s="4">
-        <v>3.4546301626542708E-2</v>
-      </c>
-      <c r="K39" s="22">
-        <v>-6.7971745611665246E-2</v>
-      </c>
+      <c r="I39" s="42">
+        <v>-9.3286501516441245</v>
+      </c>
+      <c r="J39" s="42">
+        <v>6.1469378549619647</v>
+      </c>
+      <c r="K39" s="40">
+        <v>27.433594669602702</v>
+      </c>
+      <c r="L39" s="21"/>
       <c r="M39" s="13" t="s">
         <v>47</v>
       </c>
@@ -3884,7 +4024,10 @@
         <v>5.5</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A40, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B40, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F40" s="4">
@@ -3896,15 +4039,16 @@
       <c r="H40" s="22">
         <v>0.25</v>
       </c>
-      <c r="I40" s="4">
-        <v>0.23267238998687534</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0.19801716996062585</v>
-      </c>
-      <c r="K40" s="22">
-        <v>-3.6558379243893921E-2</v>
-      </c>
+      <c r="I40" s="42">
+        <v>-7.8380322894458896</v>
+      </c>
+      <c r="J40" s="42">
+        <v>21.340178534524128</v>
+      </c>
+      <c r="K40" s="40">
+        <v>20.190315921764459</v>
+      </c>
+      <c r="L40" s="21"/>
       <c r="M40" s="13" t="s">
         <v>48</v>
       </c>
@@ -3938,7 +4082,10 @@
         <v>6</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A41, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B41, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F41" s="4">
@@ -3950,15 +4097,16 @@
       <c r="H41" s="22">
         <v>0.25</v>
       </c>
-      <c r="I41" s="4">
-        <v>0.27969816739139164</v>
-      </c>
-      <c r="J41" s="4">
-        <v>0.18909450217417484</v>
-      </c>
-      <c r="K41" s="22">
-        <v>-3.1840294147069903E-2</v>
-      </c>
+      <c r="I41" s="42">
+        <v>-7.19571436872255</v>
+      </c>
+      <c r="J41" s="42">
+        <v>20.83252714049441</v>
+      </c>
+      <c r="K41" s="40">
+        <v>24.123662892985319</v>
+      </c>
+      <c r="L41" s="21"/>
       <c r="M41" s="13" t="s">
         <v>49</v>
       </c>
@@ -3992,7 +4140,10 @@
         <v>5.5</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A42, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B42, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>0.5</v>
       </c>
       <c r="F42" s="4">
@@ -4004,15 +4155,16 @@
       <c r="H42" s="22">
         <v>0.125</v>
       </c>
-      <c r="I42" s="4">
-        <v>0.25774189229583155</v>
-      </c>
-      <c r="J42" s="4">
-        <v>0.22322567688749462</v>
-      </c>
-      <c r="K42" s="22">
-        <v>3.8511123065062325E-2</v>
-      </c>
+      <c r="I42" s="42">
+        <v>0.91718038372582689</v>
+      </c>
+      <c r="J42" s="42">
+        <v>23.861029227210999</v>
+      </c>
+      <c r="K42" s="40">
+        <v>22.697266152660081</v>
+      </c>
+      <c r="L42" s="21"/>
       <c r="M42" s="19" t="s">
         <v>50</v>
       </c>
@@ -4046,7 +4198,10 @@
         <v>6</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A43, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B43, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>0.5</v>
       </c>
       <c r="F43" s="4">
@@ -4058,15 +4213,16 @@
       <c r="H43" s="22">
         <v>0.125</v>
       </c>
-      <c r="I43" s="4">
-        <v>0.30908012248939565</v>
-      </c>
-      <c r="J43" s="4">
-        <v>0.22724036746818713</v>
-      </c>
-      <c r="K43" s="22">
-        <v>4.7541660950934178E-2</v>
-      </c>
+      <c r="I43" s="42">
+        <v>1.8829322636277555</v>
+      </c>
+      <c r="J43" s="42">
+        <v>24.647113669895635</v>
+      </c>
+      <c r="K43" s="40">
+        <v>27.06185840278572</v>
+      </c>
+      <c r="L43" s="21"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
@@ -4082,7 +4238,10 @@
         <v>5</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A44, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B44, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F44" s="4">
@@ -4094,15 +4253,16 @@
       <c r="H44" s="22">
         <v>0.25</v>
       </c>
-      <c r="I44" s="4">
-        <v>0.14311217292282297</v>
-      </c>
-      <c r="J44" s="4">
-        <v>7.9336518768468853E-2</v>
-      </c>
-      <c r="K44" s="22">
-        <v>-8.3810904000253969E-2</v>
-      </c>
+      <c r="I44" s="42">
+        <v>-11.670433184634433</v>
+      </c>
+      <c r="J44" s="42">
+        <v>9.0874980306930375</v>
+      </c>
+      <c r="K44" s="40">
+        <v>12.003524984589987</v>
+      </c>
+      <c r="L44" s="21"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
@@ -4118,7 +4278,10 @@
         <v>5.5</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A45, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B45, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F45" s="4">
@@ -4130,15 +4293,16 @@
       <c r="H45" s="22">
         <v>0.25</v>
       </c>
-      <c r="I45" s="4">
-        <v>0.17842282023926409</v>
-      </c>
-      <c r="J45" s="4">
-        <v>3.5268460717792174E-2</v>
-      </c>
-      <c r="K45" s="22">
-        <v>-9.0807948991505155E-2</v>
-      </c>
+      <c r="I45" s="42">
+        <v>-11.906750020516732</v>
+      </c>
+      <c r="J45" s="42">
+        <v>5.0653076102407564</v>
+      </c>
+      <c r="K45" s="40">
+        <v>14.765358947003332</v>
+      </c>
+      <c r="L45" s="21"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
@@ -4154,7 +4318,10 @@
         <v>6</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A46, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B46, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F46" s="4">
@@ -4166,15 +4333,16 @@
       <c r="H46" s="22">
         <v>0.25</v>
       </c>
-      <c r="I46" s="4">
-        <v>0.26017950495067299</v>
-      </c>
-      <c r="J46" s="4">
-        <v>0.13053851485201901</v>
-      </c>
-      <c r="K46" s="22">
-        <v>-5.1358956587788537E-2</v>
-      </c>
+      <c r="I46" s="42">
+        <v>-8.6596140517764475</v>
+      </c>
+      <c r="J46" s="42">
+        <v>14.976928408278823</v>
+      </c>
+      <c r="K46" s="40">
+        <v>22.171796648913457</v>
+      </c>
+      <c r="L46" s="21"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
@@ -4190,7 +4358,10 @@
         <v>5.5</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A47, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B47, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F47" s="4">
@@ -4202,15 +4373,16 @@
       <c r="H47" s="22">
         <v>0.25</v>
       </c>
-      <c r="I47" s="4">
-        <v>0.19844746727655782</v>
-      </c>
-      <c r="J47" s="4">
-        <v>9.5342401829673393E-2</v>
-      </c>
-      <c r="K47" s="22">
-        <v>-7.0783301954211425E-2</v>
-      </c>
+      <c r="I47" s="42">
+        <v>-10.404901492719702</v>
+      </c>
+      <c r="J47" s="42">
+        <v>11.072701721428878</v>
+      </c>
+      <c r="K47" s="40">
+        <v>16.767823650732705</v>
+      </c>
+      <c r="L47" s="21"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
@@ -4226,7 +4398,10 @@
         <v>6</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A48, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B48, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F48" s="4">
@@ -4238,17 +4413,18 @@
       <c r="H48" s="22">
         <v>0.25</v>
       </c>
-      <c r="I48" s="4">
-        <v>0.258302942608854</v>
-      </c>
-      <c r="J48" s="4">
-        <v>0.12490882782656203</v>
-      </c>
-      <c r="K48" s="22">
-        <v>-5.3235518929607525E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I48" s="42">
+        <v>-8.8003562274128715</v>
+      </c>
+      <c r="J48" s="42">
+        <v>14.413959705733125</v>
+      </c>
+      <c r="K48" s="40">
+        <v>21.984140414731556</v>
+      </c>
+      <c r="L48" s="21"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>43</v>
       </c>
@@ -4262,7 +4438,10 @@
         <v>6.5</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A49, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B49, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F49" s="4">
@@ -4274,17 +4453,18 @@
       <c r="H49" s="22">
         <v>0.25</v>
       </c>
-      <c r="I49" s="4">
-        <v>0.33733969242270589</v>
-      </c>
-      <c r="J49" s="4">
-        <v>0.21201907726811753</v>
-      </c>
-      <c r="K49" s="22">
-        <v>-1.6506461423447999E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I49" s="42">
+        <v>-5.7572153759893689</v>
+      </c>
+      <c r="J49" s="42">
+        <v>23.509600034504057</v>
+      </c>
+      <c r="K49" s="40">
+        <v>29.118584626885973</v>
+      </c>
+      <c r="L49" s="21"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>11</v>
       </c>
@@ -4298,7 +4478,10 @@
         <v>5.75</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A50, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B50, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F50" s="4">
@@ -4310,17 +4493,18 @@
       <c r="H50" s="22">
         <v>0.25</v>
       </c>
-      <c r="I50" s="4">
-        <v>0.23653861129564524</v>
-      </c>
-      <c r="J50" s="4">
-        <v>0.13461583388693577</v>
-      </c>
-      <c r="K50" s="22">
-        <v>-5.384600408897014E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I50" s="42">
+        <v>-8.9903733835958377</v>
+      </c>
+      <c r="J50" s="42">
+        <v>15.192352619462806</v>
+      </c>
+      <c r="K50" s="40">
+        <v>20.192322668026065</v>
+      </c>
+      <c r="L50" s="21"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>11</v>
       </c>
@@ -4334,7 +4518,10 @@
         <v>6.25</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A51, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B51, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F51" s="4">
@@ -4346,17 +4533,18 @@
       <c r="H51" s="22">
         <v>0.25</v>
       </c>
-      <c r="I51" s="4">
-        <v>0.26660134757504184</v>
-      </c>
-      <c r="J51" s="4">
-        <v>7.4804042725125489E-2</v>
-      </c>
-      <c r="K51" s="22">
-        <v>-6.6090960117265854E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I51" s="42">
+        <v>-9.6202835472564772</v>
+      </c>
+      <c r="J51" s="42">
+        <v>9.5957888878971644</v>
+      </c>
+      <c r="K51" s="40">
+        <v>22.429365526734951</v>
+      </c>
+      <c r="L51" s="21"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>12</v>
       </c>
@@ -4370,7 +4558,10 @@
         <v>5</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A52, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B52, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>3</v>
       </c>
       <c r="F52" s="4">
@@ -4382,17 +4573,18 @@
       <c r="H52" s="22">
         <v>0.75</v>
       </c>
-      <c r="I52" s="4">
-        <v>6.9970045568115868E-2</v>
-      </c>
-      <c r="J52" s="4">
-        <v>5.9910136704347583E-2</v>
-      </c>
-      <c r="K52" s="22">
-        <v>-0.35695303135496104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I52" s="42">
+        <v>-44.656092736237454</v>
+      </c>
+      <c r="J52" s="42">
+        <v>7.1448598242809105</v>
+      </c>
+      <c r="K52" s="40">
+        <v>4.6893122491192765</v>
+      </c>
+      <c r="L52" s="21"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>13</v>
       </c>
@@ -4406,7 +4598,10 @@
         <v>4</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A53, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B53, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>4</v>
       </c>
       <c r="F53" s="4">
@@ -4418,17 +4613,18 @@
       <c r="H53" s="22">
         <v>1</v>
       </c>
-      <c r="I53" s="4">
-        <v>-3.9161758125375479E-2</v>
-      </c>
-      <c r="J53" s="4">
-        <v>0.13251472562387351</v>
-      </c>
-      <c r="K53" s="22">
-        <v>-0.48146945043306777</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I53" s="42">
+        <v>-60.821747244018539</v>
+      </c>
+      <c r="J53" s="42">
+        <v>13.636087947002734</v>
+      </c>
+      <c r="K53" s="40">
+        <v>-4.6854065817683201</v>
+      </c>
+      <c r="L53" s="21"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>13</v>
       </c>
@@ -4442,7 +4638,10 @@
         <v>4.75</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A54, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B54, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>3</v>
       </c>
       <c r="F54" s="4">
@@ -4454,17 +4653,18 @@
       <c r="H54" s="22">
         <v>0.75</v>
       </c>
-      <c r="I54" s="4">
-        <v>7.3910082192732707E-2</v>
-      </c>
-      <c r="J54" s="4">
-        <v>0.14673024657819811</v>
-      </c>
-      <c r="K54" s="22">
-        <v>-0.33185914857649801</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I54" s="42">
+        <v>-42.918282297083501</v>
+      </c>
+      <c r="J54" s="42">
+        <v>15.634563119358269</v>
+      </c>
+      <c r="K54" s="40">
+        <v>5.4679312961963493</v>
+      </c>
+      <c r="L54" s="21"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>13</v>
       </c>
@@ -4478,7 +4678,10 @@
         <v>4.75</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A55, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B55, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>3</v>
       </c>
       <c r="F55" s="4">
@@ -4490,17 +4693,18 @@
       <c r="H55" s="22">
         <v>0.75</v>
       </c>
-      <c r="I55" s="4">
-        <v>9.2150641949143658E-2</v>
-      </c>
-      <c r="J55" s="4">
-        <v>0.20145192584743099</v>
-      </c>
-      <c r="K55" s="22">
-        <v>-0.31361858882008703</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I55" s="42">
+        <v>-41.550240315352674</v>
+      </c>
+      <c r="J55" s="42">
+        <v>21.106731046281556</v>
+      </c>
+      <c r="K55" s="40">
+        <v>7.2919872718374439</v>
+      </c>
+      <c r="L55" s="21"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>14</v>
       </c>
@@ -4514,7 +4718,10 @@
         <v>3.5</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A56, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B56, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>4</v>
       </c>
       <c r="F56" s="4">
@@ -4526,17 +4733,18 @@
       <c r="H56" s="22">
         <v>1</v>
       </c>
-      <c r="I56" s="4">
-        <v>-0.13964045696308006</v>
-      </c>
-      <c r="J56" s="4">
-        <v>-1.8921370889240147E-2</v>
-      </c>
-      <c r="K56" s="22">
-        <v>-0.53964045696308005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I56" s="42">
+        <v>-65.473034272231004</v>
+      </c>
+      <c r="J56" s="42">
+        <v>-1.8921370889240148</v>
+      </c>
+      <c r="K56" s="40">
+        <v>-13.964045696308006</v>
+      </c>
+      <c r="L56" s="21"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>15</v>
       </c>
@@ -4550,7 +4758,10 @@
         <v>3.75</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A57, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B57, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>4</v>
       </c>
       <c r="F57" s="4">
@@ -4562,17 +4773,18 @@
       <c r="H57" s="22">
         <v>1</v>
       </c>
-      <c r="I57" s="4">
-        <v>-0.14176330996921593</v>
-      </c>
-      <c r="J57" s="4">
-        <v>-0.10028992990764773</v>
-      </c>
-      <c r="K57" s="22">
-        <v>-0.56291715612306203</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I57" s="42">
+        <v>-67.074555939998888</v>
+      </c>
+      <c r="J57" s="42">
+        <v>-9.8366852984570823</v>
+      </c>
+      <c r="K57" s="40">
+        <v>-14.560946381536976</v>
+      </c>
+      <c r="L57" s="21"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>16</v>
       </c>
@@ -4586,7 +4798,10 @@
         <v>4</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A58, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B58, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>4</v>
       </c>
       <c r="F58" s="4">
@@ -4598,17 +4813,18 @@
       <c r="H58" s="22">
         <v>1</v>
       </c>
-      <c r="I58" s="4">
-        <v>-0.13465715189391919</v>
-      </c>
-      <c r="J58" s="4">
-        <v>-0.1539714556817576</v>
-      </c>
-      <c r="K58" s="22">
-        <v>-0.57696484420161154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I58" s="42">
+        <v>-67.983901776659323</v>
+      </c>
+      <c r="J58" s="42">
+        <v>-15.012530183560374</v>
+      </c>
+      <c r="K58" s="40">
+        <v>-14.234945958622692</v>
+      </c>
+      <c r="L58" s="21"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>17</v>
       </c>
@@ -4622,7 +4838,10 @@
         <v>3.75</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A59, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B59, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>4</v>
       </c>
       <c r="F59" s="4">
@@ -4634,17 +4853,18 @@
       <c r="H59" s="22">
         <v>1</v>
       </c>
-      <c r="I59" s="4">
-        <v>-0.1282798620317018</v>
-      </c>
-      <c r="J59" s="4">
-        <v>-5.9839586095105396E-2</v>
-      </c>
-      <c r="K59" s="22">
-        <v>-0.54943370818554793</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I59" s="42">
+        <v>-66.063297344685324</v>
+      </c>
+      <c r="J59" s="42">
+        <v>-5.7916509172028476</v>
+      </c>
+      <c r="K59" s="40">
+        <v>-13.212601587785567</v>
+      </c>
+      <c r="L59" s="21"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>18</v>
       </c>
@@ -4658,7 +4878,10 @@
         <v>6</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A60, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B60, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>3</v>
       </c>
       <c r="F60" s="4">
@@ -4670,17 +4893,18 @@
       <c r="H60" s="22">
         <v>0.75</v>
       </c>
-      <c r="I60" s="4">
-        <v>0.16923174265246327</v>
-      </c>
-      <c r="J60" s="4">
-        <v>5.7695227957389905E-2</v>
-      </c>
-      <c r="K60" s="22">
-        <v>-0.34230671888599817</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I60" s="42">
+        <v>-42.980696224142164</v>
+      </c>
+      <c r="J60" s="42">
+        <v>7.6925997188159148</v>
+      </c>
+      <c r="K60" s="40">
+        <v>13.077020419092483</v>
+      </c>
+      <c r="L60" s="21"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>19</v>
       </c>
@@ -4694,7 +4918,10 @@
         <v>6.5</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A61, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B61, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>3</v>
       </c>
       <c r="F61" s="4">
@@ -4706,17 +4933,18 @@
       <c r="H61" s="22">
         <v>0.75</v>
       </c>
-      <c r="I61" s="4">
-        <v>0.24019668509478731</v>
-      </c>
-      <c r="J61" s="4">
-        <v>0.12059005528436195</v>
-      </c>
-      <c r="K61" s="22">
-        <v>-0.31364946875136646</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I61" s="42">
+        <v>-40.542940925583245</v>
+      </c>
+      <c r="J61" s="42">
+        <v>14.366697836128505</v>
+      </c>
+      <c r="K61" s="40">
+        <v>19.404283894094114</v>
+      </c>
+      <c r="L61" s="21"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>20</v>
       </c>
@@ -4730,7 +4958,10 @@
         <v>6.5</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A62, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B62, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>3</v>
       </c>
       <c r="F62" s="4">
@@ -4742,17 +4973,18 @@
       <c r="H62" s="22">
         <v>0.75</v>
       </c>
-      <c r="I62" s="4">
-        <v>0.21050790747881387</v>
-      </c>
-      <c r="J62" s="4">
-        <v>3.1523722436441581E-2</v>
-      </c>
-      <c r="K62" s="22">
-        <v>-0.34333824636733989</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I62" s="42">
+        <v>-42.769599246781262</v>
+      </c>
+      <c r="J62" s="42">
+        <v>5.4600645513364636</v>
+      </c>
+      <c r="K62" s="40">
+        <v>16.435406132496773</v>
+      </c>
+      <c r="L62" s="21"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>21</v>
       </c>
@@ -4766,7 +4998,10 @@
         <v>7</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A63, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B63, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>4</v>
       </c>
       <c r="F63" s="4">
@@ -4778,17 +5013,18 @@
       <c r="H63" s="22">
         <v>1</v>
       </c>
-      <c r="I63" s="4">
-        <v>0.2695311072626842</v>
-      </c>
-      <c r="J63" s="4">
-        <v>0.15859332178805285</v>
-      </c>
-      <c r="K63" s="22">
-        <v>-0.42662273889116187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I63" s="42">
+        <v>-54.977474647606364</v>
+      </c>
+      <c r="J63" s="42">
+        <v>18.551639871112979</v>
+      </c>
+      <c r="K63" s="40">
+        <v>21.568495341653044</v>
+      </c>
+      <c r="L63" s="21"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>22</v>
       </c>
@@ -4802,7 +5038,10 @@
         <v>5.25</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A64, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B64, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>3.5</v>
       </c>
       <c r="F64" s="4">
@@ -4814,17 +5053,18 @@
       <c r="H64" s="22">
         <v>0.875</v>
       </c>
-      <c r="I64" s="4">
-        <v>0.14002894207332231</v>
-      </c>
-      <c r="J64" s="4">
-        <v>0.24508682621996694</v>
-      </c>
-      <c r="K64" s="22">
-        <v>-0.3580479810036008</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I64" s="42">
+        <v>-47.718983190654662</v>
+      </c>
+      <c r="J64" s="42">
+        <v>25.854836468150545</v>
+      </c>
+      <c r="K64" s="40">
+        <v>11.310586515024537</v>
+      </c>
+      <c r="L64" s="21"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>22</v>
       </c>
@@ -4838,7 +5078,10 @@
         <v>5.75</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A65, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B65, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>3</v>
       </c>
       <c r="F65" s="4">
@@ -4850,17 +5093,18 @@
       <c r="H65" s="22">
         <v>0.75</v>
       </c>
-      <c r="I65" s="4">
-        <v>0.18809744879652129</v>
-      </c>
-      <c r="J65" s="4">
-        <v>0.18929234638956399</v>
-      </c>
-      <c r="K65" s="22">
-        <v>-0.30228716658809396</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I65" s="42">
+        <v>-40.123460571030122</v>
+      </c>
+      <c r="J65" s="42">
+        <v>20.660003869725628</v>
+      </c>
+      <c r="K65" s="40">
+        <v>15.348206418113669</v>
+      </c>
+      <c r="L65" s="21"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>22</v>
       </c>
@@ -4874,7 +5118,10 @@
         <v>6.25</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A66, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B66, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>3</v>
       </c>
       <c r="F66" s="4">
@@ -4886,17 +5133,18 @@
       <c r="H66" s="22">
         <v>0.75</v>
       </c>
-      <c r="I66" s="4">
-        <v>0.26047073774581891</v>
-      </c>
-      <c r="J66" s="4">
-        <v>0.25641221323745678</v>
-      </c>
-      <c r="K66" s="22">
-        <v>-0.27222156994648872</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I66" s="42">
+        <v>-37.580079284448189</v>
+      </c>
+      <c r="J66" s="42">
+        <v>27.756605939130296</v>
+      </c>
+      <c r="K66" s="40">
+        <v>21.816304543812659</v>
+      </c>
+      <c r="L66" s="21"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>23</v>
       </c>
@@ -4910,7 +5158,7 @@
         <v>5.5</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" ref="E67:E81" si="2">AVERAGE(
+        <f>AVERAGE(
    _xlfn.XLOOKUP(A67, $M$3:$M$42, $R$3:$R$42),
    _xlfn.XLOOKUP(B67, $M$3:$M$42, $R$3:$R$42)
 )</f>
@@ -4925,17 +5173,18 @@
       <c r="H67" s="22">
         <v>1</v>
       </c>
-      <c r="I67" s="4">
-        <v>9.0080518447389402E-2</v>
-      </c>
-      <c r="J67" s="4">
-        <v>7.0241555342168194E-2</v>
-      </c>
-      <c r="K67" s="22">
-        <v>-0.47915025078337981</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I67" s="42">
+        <v>-59.782422654907329</v>
+      </c>
+      <c r="J67" s="42">
+        <v>8.5626170726783641</v>
+      </c>
+      <c r="K67" s="40">
+        <v>5.9311287678158635</v>
+      </c>
+      <c r="L67" s="21"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>24</v>
       </c>
@@ -4949,7 +5198,10 @@
         <v>7</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A68, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B68, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>4</v>
       </c>
       <c r="F68" s="4">
@@ -4961,17 +5213,18 @@
       <c r="H68" s="22">
         <v>1</v>
       </c>
-      <c r="I68" s="4">
-        <v>0.37692307692307686</v>
-      </c>
-      <c r="J68" s="4">
-        <v>0.48076923076923078</v>
-      </c>
-      <c r="K68" s="22">
-        <v>-0.31923076923076921</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I68" s="42">
+        <v>-46.92307692307692</v>
+      </c>
+      <c r="J68" s="42">
+        <v>50.769230769230766</v>
+      </c>
+      <c r="K68" s="40">
+        <v>32.307692307692299</v>
+      </c>
+      <c r="L68" s="21"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>25</v>
       </c>
@@ -4985,7 +5238,10 @@
         <v>6.25</v>
       </c>
       <c r="E69" s="3">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A69, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B69, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>4</v>
       </c>
       <c r="F69" s="4">
@@ -4997,17 +5253,18 @@
       <c r="H69" s="22">
         <v>1</v>
       </c>
-      <c r="I69" s="4">
-        <v>0.27955486474230684</v>
-      </c>
-      <c r="J69" s="4">
-        <v>0.41366459422692053</v>
-      </c>
-      <c r="K69" s="22">
-        <v>-0.35313744295000082</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I69" s="42">
+        <v>-49.898769759711598</v>
+      </c>
+      <c r="J69" s="42">
+        <v>43.481844038076673</v>
+      </c>
+      <c r="K69" s="40">
+        <v>23.724717243461452</v>
+      </c>
+      <c r="L69" s="21"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>26</v>
       </c>
@@ -5021,7 +5278,10 @@
         <v>6</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A70, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B70, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>3</v>
       </c>
       <c r="F70" s="4">
@@ -5033,17 +5293,18 @@
       <c r="H70" s="22">
         <v>0.75</v>
       </c>
-      <c r="I70" s="4">
-        <v>0.14764455911185603</v>
-      </c>
-      <c r="J70" s="4">
-        <v>-7.0663226644318844E-3</v>
-      </c>
-      <c r="K70" s="22">
-        <v>-0.36389390242660546</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I70" s="42">
+        <v>-44.599734989687711</v>
+      </c>
+      <c r="J70" s="42">
+        <v>1.2164446566337361</v>
+      </c>
+      <c r="K70" s="40">
+        <v>10.91830206503176</v>
+      </c>
+      <c r="L70" s="21"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>27</v>
       </c>
@@ -5057,7 +5318,10 @@
         <v>5.25</v>
       </c>
       <c r="E71" s="3">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A71, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B71, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F71" s="4">
@@ -5069,17 +5333,18 @@
       <c r="H71" s="22">
         <v>0.25</v>
       </c>
-      <c r="I71" s="4">
-        <v>0.281853562633546</v>
-      </c>
-      <c r="J71" s="4">
-        <v>0.420560687900638</v>
-      </c>
-      <c r="K71" s="22">
-        <v>3.3776639556622939E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I71" s="42">
+        <v>-2.7071366486378978</v>
+      </c>
+      <c r="J71" s="42">
+        <v>43.402222636217644</v>
+      </c>
+      <c r="K71" s="40">
+        <v>25.493048571046913</v>
+      </c>
+      <c r="L71" s="21"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>27</v>
       </c>
@@ -5093,7 +5358,10 @@
         <v>5.75</v>
       </c>
       <c r="E72" s="3">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A72, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B72, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F72" s="4">
@@ -5105,17 +5373,18 @@
       <c r="H72" s="22">
         <v>0.25</v>
       </c>
-      <c r="I72" s="4">
-        <v>0.30780690188927673</v>
-      </c>
-      <c r="J72" s="4">
-        <v>0.34842070566783023</v>
-      </c>
-      <c r="K72" s="22">
-        <v>1.742228650466135E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I72" s="42">
+        <v>-3.6452515890734727</v>
+      </c>
+      <c r="J72" s="42">
+        <v>36.572839797552255</v>
+      </c>
+      <c r="K72" s="40">
+        <v>27.319151727389212</v>
+      </c>
+      <c r="L72" s="21"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>27</v>
       </c>
@@ -5129,7 +5398,10 @@
         <v>6.25</v>
       </c>
       <c r="E73" s="3">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A73, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B73, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1</v>
       </c>
       <c r="F73" s="4">
@@ -5141,17 +5413,18 @@
       <c r="H73" s="22">
         <v>0.25</v>
       </c>
-      <c r="I73" s="4">
-        <v>0.33795354711870179</v>
-      </c>
-      <c r="J73" s="4">
-        <v>0.28886064135610523</v>
-      </c>
-      <c r="K73" s="22">
-        <v>5.2612394263940598E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I73" s="42">
+        <v>-4.2688685814819829</v>
+      </c>
+      <c r="J73" s="42">
+        <v>31.001448750995138</v>
+      </c>
+      <c r="K73" s="40">
+        <v>29.564585481100941</v>
+      </c>
+      <c r="L73" s="21"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>45</v>
       </c>
@@ -5165,7 +5438,10 @@
         <v>3.75</v>
       </c>
       <c r="E74" s="3">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A74, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B74, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>2</v>
       </c>
       <c r="F74" s="4">
@@ -5177,17 +5453,18 @@
       <c r="H74" s="22">
         <v>0.5</v>
       </c>
-      <c r="I74" s="4">
-        <v>-2.7185151994556012E-2</v>
-      </c>
-      <c r="J74" s="4">
-        <v>4.3444544016331937E-2</v>
-      </c>
-      <c r="K74" s="22">
-        <v>-0.24833899814840216</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I74" s="42">
+        <v>-30.98119409189939</v>
+      </c>
+      <c r="J74" s="42">
+        <v>4.5367620939408857</v>
+      </c>
+      <c r="K74" s="40">
+        <v>-3.1031305840709873</v>
+      </c>
+      <c r="L74" s="21"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>47</v>
       </c>
@@ -5201,7 +5478,10 @@
         <v>5.875</v>
       </c>
       <c r="E75" s="3">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A75, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B75, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>0.5</v>
       </c>
       <c r="F75" s="4">
@@ -5213,17 +5493,18 @@
       <c r="H75" s="22">
         <v>0.125</v>
       </c>
-      <c r="I75" s="4">
-        <v>0.35667490231338905</v>
-      </c>
-      <c r="J75" s="4">
-        <v>0.40752470694016724</v>
-      </c>
-      <c r="K75" s="22">
-        <v>0.10571336385185064</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I75" s="42">
+        <v>6.1736945965811056</v>
+      </c>
+      <c r="J75" s="42">
+        <v>42.579393770939802</v>
+      </c>
+      <c r="K75" s="40">
+        <v>32.013644077492756</v>
+      </c>
+      <c r="L75" s="21"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>48</v>
       </c>
@@ -5237,7 +5518,10 @@
         <v>5.5</v>
       </c>
       <c r="E76" s="3">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A76, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B76, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1.5</v>
       </c>
       <c r="F76" s="4">
@@ -5249,17 +5533,18 @@
       <c r="H76" s="22">
         <v>0.375</v>
       </c>
-      <c r="I76" s="4">
-        <v>0.17947002729773948</v>
-      </c>
-      <c r="J76" s="4">
-        <v>8.8410081893218362E-2</v>
-      </c>
-      <c r="K76" s="22">
-        <v>-0.13976074193302973</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I76" s="42">
+        <v>-18.703209491131073</v>
+      </c>
+      <c r="J76" s="42">
+        <v>10.379469727783375</v>
+      </c>
+      <c r="K76" s="40">
+        <v>14.870079652850871</v>
+      </c>
+      <c r="L76" s="21"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>49</v>
       </c>
@@ -5273,7 +5558,10 @@
         <v>6</v>
       </c>
       <c r="E77" s="3">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A77, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B77, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1.5</v>
       </c>
       <c r="F77" s="4">
@@ -5285,17 +5573,18 @@
       <c r="H77" s="22">
         <v>0.375</v>
       </c>
-      <c r="I77" s="4">
-        <v>0.37087935621183815</v>
-      </c>
-      <c r="J77" s="4">
-        <v>0.51263806863551431</v>
-      </c>
-      <c r="K77" s="22">
-        <v>9.3408946733766207E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I77" s="42">
+        <v>-7.2321252071890605</v>
+      </c>
+      <c r="J77" s="42">
+        <v>53.186883786628371</v>
+      </c>
+      <c r="K77" s="40">
+        <v>33.24178177502997</v>
+      </c>
+      <c r="L77" s="21"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>49</v>
       </c>
@@ -5309,7 +5598,10 @@
         <v>6.5</v>
       </c>
       <c r="E78" s="3">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A78, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B78, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>1.5</v>
       </c>
       <c r="F78" s="4">
@@ -5321,17 +5613,18 @@
       <c r="H78" s="22">
         <v>0.375</v>
       </c>
-      <c r="I78" s="4">
-        <v>0.41712133446829314</v>
-      </c>
-      <c r="J78" s="4">
-        <v>0.50136400340487941</v>
-      </c>
-      <c r="K78" s="22">
-        <v>1.327518062213931E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I78" s="42">
+        <v>-6.6485922225703185</v>
+      </c>
+      <c r="J78" s="42">
+        <v>52.444092648180238</v>
+      </c>
+      <c r="K78" s="40">
+        <v>37.0967488314447</v>
+      </c>
+      <c r="L78" s="21"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>50</v>
       </c>
@@ -5345,7 +5638,10 @@
         <v>6</v>
       </c>
       <c r="E79" s="3">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A79, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B79, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>0.5</v>
       </c>
       <c r="F79" s="4">
@@ -5357,17 +5653,18 @@
       <c r="H79" s="22">
         <v>0.125</v>
       </c>
-      <c r="I79" s="4">
-        <v>0.30837809076363581</v>
-      </c>
-      <c r="J79" s="4">
-        <v>0.22513427229090757</v>
-      </c>
-      <c r="K79" s="22">
-        <v>4.6839629225174331E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I79" s="42">
+        <v>1.8302798841957679</v>
+      </c>
+      <c r="J79" s="42">
+        <v>24.436504152167686</v>
+      </c>
+      <c r="K79" s="40">
+        <v>26.991655230209737</v>
+      </c>
+      <c r="L79" s="21"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>50</v>
       </c>
@@ -5381,7 +5678,10 @@
         <v>6.5</v>
       </c>
       <c r="E80" s="3">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A80, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B80, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>0.5</v>
       </c>
       <c r="F80" s="4">
@@ -5393,17 +5693,18 @@
       <c r="H80" s="22">
         <v>0.125</v>
       </c>
-      <c r="I80" s="4">
-        <v>0.33506013349954383</v>
-      </c>
-      <c r="J80" s="4">
-        <v>0.15518040049863155</v>
-      </c>
-      <c r="K80" s="22">
-        <v>3.1213979653390025E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I80" s="42">
+        <v>0.94681770477348248</v>
+      </c>
+      <c r="J80" s="42">
+        <v>17.825732357555466</v>
+      </c>
+      <c r="K80" s="40">
+        <v>28.890628734569766</v>
+      </c>
+      <c r="L80" s="21"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>50</v>
       </c>
@@ -5417,7 +5718,10 @@
         <v>7</v>
       </c>
       <c r="E81" s="11">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(
+   _xlfn.XLOOKUP(A81, $M$3:$M$42, $R$3:$R$42),
+   _xlfn.XLOOKUP(B81, $M$3:$M$42, $R$3:$R$42)
+)</f>
         <v>0.5</v>
       </c>
       <c r="F81" s="25">
@@ -5429,22 +5733,23 @@
       <c r="H81" s="27">
         <v>0.125</v>
       </c>
-      <c r="I81" s="4">
-        <v>0.38063979563535677</v>
-      </c>
-      <c r="J81" s="4">
-        <v>0.1419193869060705</v>
-      </c>
-      <c r="K81" s="22">
-        <v>3.448594948151068E-2</v>
-      </c>
+      <c r="I81" s="42">
+        <v>1.48067698034407</v>
+      </c>
+      <c r="J81" s="42">
+        <v>16.884246382914743</v>
+      </c>
+      <c r="K81" s="40">
+        <v>32.679364178920295</v>
+      </c>
+      <c r="L81" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="M1:R1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="T6:T7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5456,6 +5761,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005F45F808A92BD459FDE81F52B4E4C19" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="534ff1ae5478baca09ee4d90067579fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e6823a17-f351-4c15-bb5c-123acbe74039" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44f51e8933f6f6ea3a315496ce974e2d" ns3:_="">
     <xsd:import namespace="e6823a17-f351-4c15-bb5c-123acbe74039"/>
@@ -5611,15 +5925,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5629,6 +5934,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E6AB4AF-C0AD-4274-BE57-ABB259532693}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5929C1B8-2B6C-4698-85E6-F3CE61EEAE94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5642,14 +5955,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E6AB4AF-C0AD-4274-BE57-ABB259532693}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
